--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3261.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3261.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.302485542263071</v>
+        <v>3.547311067581177</v>
       </c>
       <c r="B1">
-        <v>1.491904023778986</v>
+        <v>2.377239942550659</v>
       </c>
       <c r="C1">
-        <v>1.871117906733142</v>
+        <v>1.822073459625244</v>
       </c>
       <c r="D1">
-        <v>3.832918101281146</v>
+        <v>1.647401332855225</v>
       </c>
       <c r="E1">
-        <v>4.627652532991307</v>
+        <v>1.484955549240112</v>
       </c>
     </row>
   </sheetData>
